--- a/Optimizing Satisfactory.xlsx
+++ b/Optimizing Satisfactory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\Optimizing Satisfactory Project\Optimizing-Satisfactory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F9E13-43F1-4B24-8868-9C1880ADB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC9F27-CB91-4F15-B150-222C237E25B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="4" xr2:uid="{468F4A51-D073-4A56-B761-9C9CA4087014}"/>
   </bookViews>
@@ -3589,7 +3589,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Optimizing Satisfactory.xlsx
+++ b/Optimizing Satisfactory.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\Optimizing Satisfactory Project\Optimizing-Satisfactory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\Optimizing-Satisfactory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC9F27-CB91-4F15-B150-222C237E25B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255816B8-07CB-41FA-9598-5732163796FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="4" xr2:uid="{468F4A51-D073-4A56-B761-9C9CA4087014}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="4" xr2:uid="{468F4A51-D073-4A56-B761-9C9CA4087014}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Machines" sheetId="5" r:id="rId2"/>
-    <sheet name="Item Research Tiers" sheetId="6" r:id="rId3"/>
-    <sheet name="Resources" sheetId="2" r:id="rId4"/>
-    <sheet name="Base Recipies" sheetId="3" r:id="rId5"/>
+    <sheet name="Machines" sheetId="5" r:id="rId1"/>
+    <sheet name="Item Research Tiers" sheetId="6" r:id="rId2"/>
+    <sheet name="Resources" sheetId="2" r:id="rId3"/>
+    <sheet name="Base Recipes" sheetId="3" r:id="rId4"/>
+    <sheet name="AIV" sheetId="7" r:id="rId5"/>
     <sheet name="Alternate Recipies" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,67 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="199">
-  <si>
-    <t>GOAL:</t>
-  </si>
-  <si>
-    <t>Optimize the game, Satisfactory, by utilizing all the resouces available as inputs and maximizing resulting product outputs.</t>
-  </si>
-  <si>
-    <t>METHOD:</t>
-  </si>
-  <si>
-    <t>Optimizing Satisfactory</t>
-  </si>
-  <si>
-    <t>Record the maximum yields of all resources in the Satisfactory world</t>
-  </si>
-  <si>
-    <t>Record the base and alternate recipies for all items and machines in the game</t>
-  </si>
-  <si>
-    <t>Optimize produced yeild based on maximum supply available</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Assign values to the produced products based on the complexity of the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>original</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> recipies</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="209">
   <si>
     <t>Raw Resource</t>
   </si>
   <si>
-    <t>Power consumption and production</t>
-  </si>
-  <si>
-    <t>Resources used to create required machines</t>
-  </si>
-  <si>
-    <t>Overclocking and production amplification</t>
-  </si>
-  <si>
     <t># Nodes</t>
   </si>
   <si>
@@ -111,15 +55,9 @@
     <t>Miner Mk.3</t>
   </si>
   <si>
-    <t>Considerations:</t>
-  </si>
-  <si>
     <t>Impure</t>
   </si>
   <si>
-    <t>Resources Produced</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -264,9 +202,6 @@
     <t>Concrete</t>
   </si>
   <si>
-    <t>Screw</t>
-  </si>
-  <si>
     <t>Reinforced Iron Plate</t>
   </si>
   <si>
@@ -576,15 +511,6 @@
     <t>Turbo Rifle Ammo</t>
   </si>
   <si>
-    <t>Production Rate (s)</t>
-  </si>
-  <si>
-    <t>Input Rate (# items)</t>
-  </si>
-  <si>
-    <t>Output Rate (# Items)</t>
-  </si>
-  <si>
     <t>Resources Extracted</t>
   </si>
   <si>
@@ -600,18 +526,6 @@
     <t>Output 2</t>
   </si>
   <si>
-    <t>Input 2 Rate (# items)</t>
-  </si>
-  <si>
-    <t>Input 1 Rate (# items)</t>
-  </si>
-  <si>
-    <t>Output 1 Rate (# Items)</t>
-  </si>
-  <si>
-    <t>Output 2 Rate (# Items)</t>
-  </si>
-  <si>
     <t>Power Shard</t>
   </si>
   <si>
@@ -639,35 +553,132 @@
     <t>150 for each well, no matter how many satellite wells (where resources are actually extracted) there are</t>
   </si>
   <si>
-    <t>Resources &amp; Links</t>
-  </si>
-  <si>
-    <t>https://satisfactory.wiki.gg/</t>
-  </si>
-  <si>
-    <t>https://www.satisfactorygame.com/</t>
-  </si>
-  <si>
-    <t>Only using recipies that can be automated in a machine and not including seasonal recipies or recipies that used resources gathered by hand (ex: keaves ir reamains)</t>
-  </si>
-  <si>
     <t>Versitile Framework</t>
   </si>
   <si>
-    <t>Pressure Control Cube</t>
-  </si>
-  <si>
     <t>Versatile Framwork</t>
   </si>
   <si>
-    <t>Potential furture additions:</t>
+    <t>only considering packing fluids</t>
+  </si>
+  <si>
+    <t>Packaged Nitrogen Gas</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Input 3</t>
+  </si>
+  <si>
+    <t>Input 4</t>
+  </si>
+  <si>
+    <t>Explosive Rebar</t>
+  </si>
+  <si>
+    <t>Singulary Cell</t>
+  </si>
+  <si>
+    <t>500-1500 MW power?</t>
+  </si>
+  <si>
+    <t>0 MW power?</t>
+  </si>
+  <si>
+    <t>Non-Fissile Uranium</t>
+  </si>
+  <si>
+    <t>Uranium Waste</t>
+  </si>
+  <si>
+    <t>500-1500 MW</t>
+  </si>
+  <si>
+    <t>250-750 MW</t>
+  </si>
+  <si>
+    <t>Fisconium</t>
+  </si>
+  <si>
+    <t>Plutonium Waste</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>0-2000 MW</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>100-400 MW</t>
+  </si>
+  <si>
+    <t>Crude Oil (Well)</t>
+  </si>
+  <si>
+    <t>Input AIV</t>
+  </si>
+  <si>
+    <t>Production Rate</t>
+  </si>
+  <si>
+    <t>Output Rate</t>
+  </si>
+  <si>
+    <t>Input Rate</t>
+  </si>
+  <si>
+    <t>Input 1 Rate</t>
+  </si>
+  <si>
+    <t>Input 2 Rate</t>
+  </si>
+  <si>
+    <t>Output 1 Rate</t>
+  </si>
+  <si>
+    <t>Output 2 Rate</t>
+  </si>
+  <si>
+    <t>Input 3 Rate</t>
+  </si>
+  <si>
+    <t>Input 4 Rate</t>
+  </si>
+  <si>
+    <t>Produced Item AIV = (Machine Processing (1) + (Input 1 AIV + Input 2 AIV + ...) ) x Technology Tier / Produced Rate</t>
+  </si>
+  <si>
+    <t>Base resources AIV = 1 x Technology Tier</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>Total Production Rate</t>
+  </si>
+  <si>
+    <t>Ouput Rate</t>
+  </si>
+  <si>
+    <t>Ouput AIV</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,37 +688,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -736,16 +716,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,8 +742,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -815,19 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
@@ -858,37 +835,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="85">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -918,6 +1032,1018 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -998,71 +2124,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1077,20 +2138,160 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A67327B-416D-4EAA-A58B-24605BAA1299}" name="Machines_Extractor" displayName="Machines_Extractor" ref="A2:C6" totalsRowShown="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A67327B-416D-4EAA-A58B-24605BAA1299}" name="Machines_Extractor" displayName="Machines_Extractor" ref="A2:C6" totalsRowShown="0" tableBorderDxfId="84">
   <autoFilter ref="A2:C6" xr:uid="{5A67327B-416D-4EAA-A58B-24605BAA1299}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E3568D8E-493F-43E4-BD14-627493468BC7}" name="Machine" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2D976666-EA13-4D73-B487-4D36A5A2DC0C}" name="Resources Extracted" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E3568D8E-493F-43E4-BD14-627493468BC7}" name="Machine" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{2D976666-EA13-4D73-B487-4D36A5A2DC0C}" name="Resources Extracted" dataDxfId="82"/>
     <tableColumn id="3" xr3:uid="{74385DBE-4BAB-42F1-9147-1FA57FD2B525}" name="Power Usage (MW)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1593A0B-0FE0-49C7-89BE-5C48B3915212}" name="Recipes_Packager" displayName="Recipes_Packager" ref="A74:F85" totalsRowShown="0" headerRowDxfId="52" dataDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="57">
+  <autoFilter ref="A74:F85" xr:uid="{B1593A0B-0FE0-49C7-89BE-5C48B3915212}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4B9FF88F-CBB9-4146-8DA8-95EF94D17ED3}" name="Output" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{73035B71-2D8B-4A7F-9D26-ACEBABA5AC85}" name="Output Rate" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{2FA8697D-7D83-4958-87A6-91BF9EFF8875}" name="Input 1" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{9072633E-426A-4D59-BD97-F836B7A8D8BA}" name="Input 1 Rate" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{A6D50483-CF77-43AE-B7D3-0DAD1435DEE7}" name="Input 2" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{2E7C2233-3690-4F14-8692-5D840DC54553}" name="Input 2 Rate" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{033858CA-9888-4C36-9790-8FF1CF24FF0F}" name="Recipes_Foundry" displayName="Recipes_Foundry" ref="A88:F90" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="51">
+  <autoFilter ref="A88:F90" xr:uid="{033858CA-9888-4C36-9790-8FF1CF24FF0F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{09CE148C-B7CD-4272-B14A-690011A9899E}" name="Output"/>
+    <tableColumn id="2" xr3:uid="{907480DF-5484-413B-AB29-C8E0F6DB943E}" name="Output Rate"/>
+    <tableColumn id="4" xr3:uid="{DF5F68E0-7533-42AD-A732-D5993399D1F0}" name="Input 1"/>
+    <tableColumn id="5" xr3:uid="{64A38F68-A306-4874-B7AA-E89BC2EECFCB}" name="Input 1 Rate"/>
+    <tableColumn id="6" xr3:uid="{8BD25126-21A3-49C9-8D22-373BCF65CB86}" name="Input 2"/>
+    <tableColumn id="7" xr3:uid="{FD404F06-A8E0-4E71-AE05-A7644AF674BD}" name="Input 2 Rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5BFAB603-D4CE-4771-B731-F5B4EF8DF650}" name="Recipes_Manufacturer" displayName="Recipes_Manufacturer" ref="A93:J111" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <autoFilter ref="A93:J111" xr:uid="{5BFAB603-D4CE-4771-B731-F5B4EF8DF650}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C2E7383A-F8E3-4C20-899E-17C73F7A257C}" name="Output" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{16239C48-585C-4B2E-B10F-4E259CEA0CE7}" name="Output Rate" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{473BA955-3661-4017-B44C-1DFF247D6835}" name="Input 1" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{29B2B6BB-E61A-44E8-9BF8-8DF9A88A77EC}" name="Input 1 Rate" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{DC68A10D-5EFD-4B48-A3CE-F35F423ED9D6}" name="Input 2" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{46F647AB-F6E7-4D5A-94DD-67DF2A17CF6B}" name="Input 2 Rate" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{639EAD86-FB4F-418F-92F4-40CD16EF8F62}" name="Input 3" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{AD221461-9C79-4FD9-9DBC-EFEAD3C4A0D8}" name="Input 3 Rate" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{FF0E65D7-BFA4-4EE8-AFB2-D0C075774002}" name="Input 4" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{EA20E29D-AE81-41B1-86CF-E9840E6214E9}" name="Input 4 Rate" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B682BCF3-FFD0-40C3-BC8C-43AD2CDCB786}" name="Recipes_Blender" displayName="Recipes_Blender" ref="A114:L123" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="A114:L123" xr:uid="{B682BCF3-FFD0-40C3-BC8C-43AD2CDCB786}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{1A100317-9081-4F42-B939-7B1FABB2BABD}" name="Output"/>
+    <tableColumn id="2" xr3:uid="{869230A1-33BD-479E-AB90-68BCF2CECF5E}" name="Output Rate"/>
+    <tableColumn id="3" xr3:uid="{851518D6-4FCB-479B-9DAE-0BAED3C82627}" name="Output 2"/>
+    <tableColumn id="4" xr3:uid="{6494945C-8574-49FC-9D5B-B3AD180F65A7}" name="Output 2 Rate"/>
+    <tableColumn id="6" xr3:uid="{72AE989D-D803-4924-9D7A-CE3146254E1C}" name="Input 1"/>
+    <tableColumn id="7" xr3:uid="{828FD001-E032-4A76-8378-1315049A6EA8}" name="Input 1 Rate"/>
+    <tableColumn id="8" xr3:uid="{07EC1A3E-4051-49D0-857B-475462D19B26}" name="Input 2"/>
+    <tableColumn id="9" xr3:uid="{4DE8AD65-7C21-4E35-8E76-DA307E7BB9C0}" name="Input 2 Rate"/>
+    <tableColumn id="10" xr3:uid="{4F551951-8FB6-48A7-9EB4-60940E6C139C}" name="Input 3"/>
+    <tableColumn id="11" xr3:uid="{8D704C50-9BF5-49EE-BE7C-3E58F7643457}" name="Input 3 Rate"/>
+    <tableColumn id="12" xr3:uid="{94FC5923-A3EC-45C2-9585-C38ECB50E9CE}" name="Input 4"/>
+    <tableColumn id="13" xr3:uid="{3D8D220F-D2E6-4FA9-ABBD-0B32452DE220}" name="Input 4 Rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{59E757B3-C1F0-4E86-B5E8-025B73DBC787}" name="Recipes_Accelerator" displayName="Recipes_Accelerator" ref="A126:H131" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="A126:H131" xr:uid="{59E757B3-C1F0-4E86-B5E8-025B73DBC787}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{12D11BA3-A077-4FC8-ACC5-BED775E30513}" name="Output"/>
+    <tableColumn id="8" xr3:uid="{F433DFFF-2719-4EFC-9A2A-3F5E32CD7C0A}" name="Output Rate"/>
+    <tableColumn id="1" xr3:uid="{DE87BCED-002B-45D7-BE30-796FD6AE84A7}" name="Input 1"/>
+    <tableColumn id="2" xr3:uid="{0040D493-71A5-4A00-BACF-46D9A6A51EC5}" name="Input 1 Rate"/>
+    <tableColumn id="3" xr3:uid="{04B5B40F-0859-4CD3-9635-11381DFAA842}" name="Input 2"/>
+    <tableColumn id="4" xr3:uid="{99A884DE-95A5-41C0-9A9A-14D24F15AC67}" name="Input 2 Rate"/>
+    <tableColumn id="5" xr3:uid="{E5B7E262-1342-436F-A912-0291B935F380}" name="Input 3"/>
+    <tableColumn id="6" xr3:uid="{64806553-BCB6-4F3D-AD83-653D646D058B}" name="Input 3 Rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FE083E61-C079-4B45-A47A-50B11ADC480E}" name="Recipes_Encoder" displayName="Recipes_Encoder" ref="A134:L140" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="A134:L140" xr:uid="{FE083E61-C079-4B45-A47A-50B11ADC480E}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{AF001744-CDE5-4937-B3EA-A13DA44F99E8}" name="Output 1"/>
+    <tableColumn id="2" xr3:uid="{4CAD4932-87E9-4AE6-8611-9D01131AA837}" name="Output 1 Rate"/>
+    <tableColumn id="3" xr3:uid="{7F6386F3-D824-4D07-81F4-CA527B3E203C}" name="Output 2"/>
+    <tableColumn id="4" xr3:uid="{69156E61-C0C2-439C-8F96-B6E20E5CE74E}" name="Output 2 Rate"/>
+    <tableColumn id="6" xr3:uid="{54F0C3B9-CBF2-4C4F-9CFF-D32AC94DC074}" name="Input 1"/>
+    <tableColumn id="7" xr3:uid="{BC38E265-8C70-4EE9-BEFB-D1B11F084355}" name="Input 1 Rate"/>
+    <tableColumn id="8" xr3:uid="{7F1D98A3-9EB3-4CD8-AC53-BE3C90F43F48}" name="Input 2"/>
+    <tableColumn id="9" xr3:uid="{A0ACA1B5-255B-4B8A-AE76-332C73997A34}" name="Input 2 Rate"/>
+    <tableColumn id="10" xr3:uid="{56792F61-A43F-4A9B-ADC0-5DB4811AEC25}" name="Input 3"/>
+    <tableColumn id="11" xr3:uid="{92EFB5DB-29B2-4861-9910-5B75DDD0A0B1}" name="Input 3 Rate"/>
+    <tableColumn id="12" xr3:uid="{7B66B675-77E8-425F-AA63-0980AA0F7EE8}" name="Input 4"/>
+    <tableColumn id="13" xr3:uid="{3B90BD86-BE11-4D55-99F9-8FA4C665E272}" name="Input 4 Rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9E037353-20CC-4A79-8CBC-06569CA7B692}" name="Recipes_Converter" displayName="Recipes_Converter" ref="A143:F146" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A143:F146" xr:uid="{9E037353-20CC-4A79-8CBC-06569CA7B692}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{63A73AE8-BD63-4C4B-91F8-9C25E8D23B17}" name="Output"/>
+    <tableColumn id="2" xr3:uid="{1F5DE54F-8220-4B5E-A923-A42FC3BEAF9D}" name="Output Rate"/>
+    <tableColumn id="4" xr3:uid="{7BB72847-1671-4DE7-9775-46ABA8697A82}" name="Input 1"/>
+    <tableColumn id="5" xr3:uid="{3255FB39-9ACA-40BB-AC26-DE2CA2F3FD5C}" name="Input 1 Rate"/>
+    <tableColumn id="6" xr3:uid="{1748F819-FA94-4C61-B5AE-0F48061F945F}" name="Input 2"/>
+    <tableColumn id="7" xr3:uid="{11543042-49E3-493D-9007-6F3B4C8BB620}" name="Input 2 Rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B3E2CC51-9479-4380-9B02-40FC3F8495EE}" name="AIV" displayName="AIV" ref="A5:D36" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A5:D36" xr:uid="{B3E2CC51-9479-4380-9B02-40FC3F8495EE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9C393EF7-50AE-4BD8-8662-A412E8581231}" name="Output" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{41548B42-34F0-4949-9F3B-2777343ADED5}" name="Ouput Rate" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(A6,Resources_Total[#All],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{73EB3FDE-9CCC-44CF-8C1F-0F4A73DF5EAE}" name="Input AIV"/>
+    <tableColumn id="5" xr3:uid="{BD8560BE-C5D6-4171-A7FF-EB39EBFD9DA5}" name="Ouput AIV" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*#REF!),0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E0AAAD1-DA33-43E3-86A3-B14DA542D11F}" name="Machines_Manufacturer" displayName="Machines_Manufacturer" ref="A9:B19" totalsRowShown="0">
-  <autoFilter ref="A9:B19" xr:uid="{8E0AAAD1-DA33-43E3-86A3-B14DA542D11F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E0AAAD1-DA33-43E3-86A3-B14DA542D11F}" name="Machines_Manufacturer" displayName="Machines_Manufacturer" ref="A9:B20" totalsRowShown="0">
+  <autoFilter ref="A9:B20" xr:uid="{8E0AAAD1-DA33-43E3-86A3-B14DA542D11F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{68632A2B-7952-4DB0-9F47-B03E89BDB3C9}" name="Machine"/>
     <tableColumn id="2" xr3:uid="{D44CBEAA-0918-4DD8-A1F2-B901AD3639BE}" name="Power Usage (MW)"/>
@@ -1100,8 +2301,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BCC886C-4FA9-4F6D-8321-0B8DDE78E6D7}" name="Item_Research" displayName="Item_Research" ref="A4:B129" totalsRowShown="0">
-  <autoFilter ref="A4:B129" xr:uid="{3BCC886C-4FA9-4F6D-8321-0B8DDE78E6D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BCC886C-4FA9-4F6D-8321-0B8DDE78E6D7}" name="Item_Research" displayName="Item_Research" ref="A4:B132" totalsRowShown="0">
+  <autoFilter ref="A4:B132" xr:uid="{3BCC886C-4FA9-4F6D-8321-0B8DDE78E6D7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{57995180-6DFA-4F87-BF86-B2C4F220266C}" name="Item"/>
     <tableColumn id="2" xr3:uid="{C84FAF31-378D-455B-92F3-791604310B0E}" name="Milestone Tier"/>
@@ -1111,15 +2312,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C4E66B7-88F7-4826-A3F3-15BE8FCE34A1}" name="Resources" displayName="Resources" ref="A7:E45" totalsRowShown="0">
-  <autoFilter ref="A7:E45" xr:uid="{9C4E66B7-88F7-4826-A3F3-15BE8FCE34A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C4E66B7-88F7-4826-A3F3-15BE8FCE34A1}" name="Resources" displayName="Resources" ref="A7:E46" totalsRowShown="0">
+  <autoFilter ref="A7:E46" xr:uid="{9C4E66B7-88F7-4826-A3F3-15BE8FCE34A1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{309660CB-72AF-4D14-AB4C-7CBEFD7E7DF7}" name="Raw Resource"/>
     <tableColumn id="2" xr3:uid="{C7095C65-69FE-4DDB-8AD5-4FE61795D95E}" name="Machine"/>
     <tableColumn id="4" xr3:uid="{3CA4CC31-9A4C-4C75-83F6-243F1D3B15A6}" name="Purity"/>
     <tableColumn id="5" xr3:uid="{E66779D3-2E0C-496C-9F44-BF941FBC935D}" name="# Nodes"/>
-    <tableColumn id="6" xr3:uid="{ECE7A0BE-181E-405E-8483-92003F473BC6}" name="Resources Produced" dataDxfId="10">
-      <calculatedColumnFormula>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D8," ", A8)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{ECE7A0BE-181E-405E-8483-92003F473BC6}" name="Production Rate" dataDxfId="6">
+      <calculatedColumnFormula>200*Resources[[#This Row],['# Nodes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1127,62 +2328,71 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{28B5AE0E-7D7D-410B-A887-2F8D03915E54}" name="Recipies_Smelter" displayName="Recipies_Smelter" ref="A2:E5" totalsRowShown="0">
-  <autoFilter ref="A2:E5" xr:uid="{28B5AE0E-7D7D-410B-A887-2F8D03915E54}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{92F92622-57CD-4165-94FB-A08FF6A2A53C}" name="Input"/>
-    <tableColumn id="2" xr3:uid="{1C2F3632-6059-4563-897E-2699E067B7FD}" name="Input Rate (# items)"/>
-    <tableColumn id="7" xr3:uid="{29322B19-9215-480A-85F7-3864B79F556D}" name="Production Rate (s)"/>
-    <tableColumn id="3" xr3:uid="{F376E5AA-D2CC-4F41-82B1-124F312271EC}" name="Output"/>
-    <tableColumn id="4" xr3:uid="{0DA7B2D7-F0FF-4C40-A3B6-639CC8BB678A}" name="Output Rate (# Items)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D817E622-D363-4468-AF6E-981D7DC25642}" name="Resources_Total" displayName="Resources_Total" ref="G7:H22" totalsRowShown="0">
+  <autoFilter ref="G7:H22" xr:uid="{D817E622-D363-4468-AF6E-981D7DC25642}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2DA371F8-20F4-499F-A749-5E6AFAD4FFEB}" name="Raw Resource" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{32D2DE49-88A3-4840-8848-818208CEA3BA}" name="Total Production Rate" dataDxfId="4">
+      <calculatedColumnFormula>SUMIF(Resources[[#All],[Raw Resource]],G8,Resources[[#All],[Production Rate]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2A367213-AB56-45F3-A54E-4D28841C7CF9}" name="Recipies_Refinery" displayName="Recipies_Refinery" ref="A59:I71" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A59:I71" xr:uid="{2A367213-AB56-45F3-A54E-4D28841C7CF9}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{40CBDC94-8B7C-450D-B072-F64D67DAC1AD}" name="Input 1"/>
-    <tableColumn id="2" xr3:uid="{22D9E365-7B0A-401A-8550-EFC2E23955E3}" name="Input 1 Rate (# items)"/>
-    <tableColumn id="3" xr3:uid="{FFDBA1C8-AB7B-41A5-981C-5A695E8834D1}" name="Input 2"/>
-    <tableColumn id="4" xr3:uid="{BF048371-70C0-41F0-A0A4-C2A06565F0BA}" name="Input 2 Rate (# items)"/>
-    <tableColumn id="5" xr3:uid="{8AB1AB67-0828-434E-A6C9-6EF548200F63}" name="Production Rate (s)"/>
-    <tableColumn id="6" xr3:uid="{A02AAB8C-35A0-40B8-911F-7FCC22DF10FD}" name="Output 1"/>
-    <tableColumn id="7" xr3:uid="{410842F0-8553-4DD8-9838-25B5EC5299BD}" name="Output 1 Rate (# Items)"/>
-    <tableColumn id="8" xr3:uid="{1FCFC0C0-23FD-41A5-8641-F6C430EC9740}" name="Output 2"/>
-    <tableColumn id="9" xr3:uid="{2FCD593B-9C24-4CFD-9D57-FB76E1865327}" name="Output 2 Rate (# Items)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{28B5AE0E-7D7D-410B-A887-2F8D03915E54}" name="Recipes_Smelter" displayName="Recipes_Smelter" ref="A2:D5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A2:D5" xr:uid="{28B5AE0E-7D7D-410B-A887-2F8D03915E54}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{92F92622-57CD-4165-94FB-A08FF6A2A53C}" name="Output"/>
+    <tableColumn id="4" xr3:uid="{0DA7B2D7-F0FF-4C40-A3B6-639CC8BB678A}" name="Output Rate"/>
+    <tableColumn id="6" xr3:uid="{44D80B68-2C81-47F9-8348-9C65C2BC1B8F}" name="Input"/>
+    <tableColumn id="8" xr3:uid="{821D2D06-7E05-40CA-8DD5-FC97AB93ED94}" name="Input Rate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{98C44B9D-D9A7-4999-ADEA-AE6D98339AED}" name="Recipies_Constructor" displayName="Recipies_Constructor" ref="A8:E27" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A8:E27" xr:uid="{98C44B9D-D9A7-4999-ADEA-AE6D98339AED}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D30FE19D-4A1F-480B-A7F3-3BAD9990D917}" name="Input"/>
-    <tableColumn id="2" xr3:uid="{B60502C8-804C-495C-B26C-25CEC85AF40D}" name="Input Rate (# items)"/>
-    <tableColumn id="3" xr3:uid="{84744B60-6734-4475-ADE4-963CE1F62C23}" name="Production Rate (s)"/>
-    <tableColumn id="4" xr3:uid="{BC917746-A415-466B-BC2A-555108CD8416}" name="Output"/>
-    <tableColumn id="5" xr3:uid="{21DDD50F-4DD9-4A81-9B9A-96F7C7806F8B}" name="Output Rate (# Items)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2A367213-AB56-45F3-A54E-4D28841C7CF9}" name="Recipes_Refinery" displayName="Recipes_Refinery" ref="A59:H71" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="63" tableBorderDxfId="64">
+  <autoFilter ref="A59:H71" xr:uid="{2A367213-AB56-45F3-A54E-4D28841C7CF9}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{40CBDC94-8B7C-450D-B072-F64D67DAC1AD}" name="Output 1" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{22D9E365-7B0A-401A-8550-EFC2E23955E3}" name="Output 1 Rate" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{FFDBA1C8-AB7B-41A5-981C-5A695E8834D1}" name="Output 2" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{BF048371-70C0-41F0-A0A4-C2A06565F0BA}" name="Output 2 Rate" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{A02AAB8C-35A0-40B8-911F-7FCC22DF10FD}" name="Input 1" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{410842F0-8553-4DD8-9838-25B5EC5299BD}" name="Input 1 Rate" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{1FCFC0C0-23FD-41A5-8641-F6C430EC9740}" name="Input 2" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{2FCD593B-9C24-4CFD-9D57-FB76E1865327}" name="Input 2 Rate" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D4A9223C-B845-4136-9A8C-BC7DD5CB9D76}" name="Recipes_Assembler" displayName="Recipes_Assembler" ref="A30:G56" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A30:G56" xr:uid="{D4A9223C-B845-4136-9A8C-BC7DD5CB9D76}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C5E1AA42-09D5-4E12-85B9-159E4AA6F9C4}" name="Input 1"/>
-    <tableColumn id="2" xr3:uid="{EE687244-F37A-45DD-BB36-444C80A5AFA5}" name="Input 1 Rate (# items)"/>
-    <tableColumn id="3" xr3:uid="{E879363F-E92F-4A28-8127-0CD6F10832EA}" name="Input 2"/>
-    <tableColumn id="4" xr3:uid="{7BEF2859-6B6E-4D0B-B926-E1C2E99DE55D}" name="Input 2 Rate (# items)"/>
-    <tableColumn id="5" xr3:uid="{51C898B4-2780-4B84-BE57-FFED3DA4A498}" name="Production Rate (s)"/>
-    <tableColumn id="6" xr3:uid="{F7E68F03-ABFA-4BC1-9805-F9D1FB8D72AF}" name="Output"/>
-    <tableColumn id="7" xr3:uid="{2262CE15-190B-4478-AAB6-AD31CC8CB0A8}" name="Output Rate (# Items)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{98C44B9D-D9A7-4999-ADEA-AE6D98339AED}" name="Recipes_Constructor" displayName="Recipes_Constructor" ref="A8:D27" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowBorderDxfId="72" tableBorderDxfId="75">
+  <autoFilter ref="A8:D27" xr:uid="{98C44B9D-D9A7-4999-ADEA-AE6D98339AED}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D30FE19D-4A1F-480B-A7F3-3BAD9990D917}" name="Output" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{B60502C8-804C-495C-B26C-25CEC85AF40D}" name="Output Rate" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{BC917746-A415-466B-BC2A-555108CD8416}" name="Input" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{21DDD50F-4DD9-4A81-9B9A-96F7C7806F8B}" name="Input Rate" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D4A9223C-B845-4136-9A8C-BC7DD5CB9D76}" name="Recipes_Assembler" displayName="Recipes_Assembler" ref="A30:F56" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="68" tableBorderDxfId="69">
+  <autoFilter ref="A30:F56" xr:uid="{D4A9223C-B845-4136-9A8C-BC7DD5CB9D76}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C5E1AA42-09D5-4E12-85B9-159E4AA6F9C4}" name="Output" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{EE687244-F37A-45DD-BB36-444C80A5AFA5}" name="Output Rate" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{7BEF2859-6B6E-4D0B-B926-E1C2E99DE55D}" name="Input 1" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{51C898B4-2780-4B84-BE57-FFED3DA4A498}" name="Input 1 Rate" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{F7E68F03-ABFA-4BC1-9805-F9D1FB8D72AF}" name="Input 2" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{2262CE15-190B-4478-AAB6-AD31CC8CB0A8}" name="Input 2 Rate" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1504,119 +2714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C3BC14-7D53-47F1-B5A1-BA256A7DD3C2}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85814B52-F991-4364-A93C-5C2C07EB8ACF}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{633DC6FE-CD3F-416D-9CC9-EC7E0502C850}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{D968C418-90AA-4C1E-B4CE-6AE0C3E13818}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85814B52-F991-4364-A93C-5C2C07EB8ACF}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,24 +2729,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>39</v>
+      <c r="A1" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>240</v>
@@ -1655,7 +2757,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -1666,7 +2768,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -1675,15 +2777,15 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>120</v>
@@ -1692,25 +2794,25 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>40</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1718,15 +2820,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1734,7 +2836,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -1742,32 +2844,58 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1779,12 +2907,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBDF055-0727-4320-894B-46E0A3B0A92B}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,25 +2923,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1821,7 +2949,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1829,7 +2957,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1837,7 +2965,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1845,7 +2973,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1853,7 +2981,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1861,7 +2989,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1869,7 +2997,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1877,7 +3005,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1885,7 +3013,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1893,7 +3021,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1901,7 +3029,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1909,7 +3037,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1917,7 +3045,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1925,7 +3053,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1933,7 +3061,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1941,7 +3069,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1949,7 +3077,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1957,7 +3085,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1965,7 +3093,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1973,7 +3101,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1981,7 +3109,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1989,7 +3117,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1997,7 +3125,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2005,7 +3133,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2013,7 +3141,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2021,7 +3149,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2029,7 +3157,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2037,7 +3165,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2045,7 +3173,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -2053,7 +3181,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -2061,7 +3189,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2069,7 +3197,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2077,7 +3205,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2085,7 +3213,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2093,7 +3221,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2101,7 +3229,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2109,7 +3237,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2117,7 +3245,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2125,15 +3253,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2141,7 +3269,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -2149,7 +3277,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -2157,15 +3285,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -2173,7 +3301,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -2181,7 +3309,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -2189,7 +3317,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -2197,7 +3325,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -2205,7 +3333,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -2213,7 +3341,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -2221,7 +3349,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -2229,7 +3357,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -2237,7 +3365,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2245,7 +3373,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -2253,15 +3381,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -2269,7 +3397,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -2277,7 +3405,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -2285,7 +3413,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -2293,7 +3421,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -2301,7 +3429,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -2309,7 +3437,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -2317,7 +3445,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -2325,7 +3453,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -2333,7 +3461,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -2341,7 +3469,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -2349,7 +3477,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -2357,7 +3485,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -2365,7 +3493,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -2373,7 +3501,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -2381,7 +3509,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -2389,7 +3517,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -2397,7 +3525,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2405,7 +3533,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -2413,7 +3541,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -2421,23 +3549,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -2445,7 +3573,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -2453,7 +3581,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -2461,7 +3589,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -2469,7 +3597,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -2477,7 +3605,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -2485,7 +3613,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -2493,7 +3621,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -2501,7 +3629,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -2509,7 +3637,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -2517,7 +3645,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -2525,7 +3653,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -2533,7 +3661,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -2541,23 +3669,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B96">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B97">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="B98">
         <v>1.5</v>
@@ -2565,7 +3693,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B99">
         <v>1.5</v>
@@ -2573,7 +3701,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B100">
         <v>1.5</v>
@@ -2581,7 +3709,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="B101">
         <v>1.5</v>
@@ -2589,7 +3717,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>1.5</v>
@@ -2597,7 +3725,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="B103">
         <v>1.5</v>
@@ -2605,7 +3733,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B104">
         <v>1.5</v>
@@ -2613,7 +3741,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B105">
         <v>1.5</v>
@@ -2621,7 +3749,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B106">
         <v>1.5</v>
@@ -2629,7 +3757,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B107">
         <v>1.5</v>
@@ -2637,7 +3765,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B108">
         <v>1.5</v>
@@ -2645,7 +3773,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="B109">
         <v>1.5</v>
@@ -2653,7 +3781,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B110">
         <v>1.5</v>
@@ -2661,7 +3789,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <v>1.5</v>
@@ -2669,7 +3797,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B112">
         <v>1.5</v>
@@ -2677,7 +3805,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B113">
         <v>1.5</v>
@@ -2685,7 +3813,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B114">
         <v>1.5</v>
@@ -2693,7 +3821,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="B115">
         <v>1.5</v>
@@ -2701,7 +3829,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B116">
         <v>1.5</v>
@@ -2709,7 +3837,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B117">
         <v>1.5</v>
@@ -2717,7 +3845,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B118">
         <v>1.5</v>
@@ -2725,7 +3853,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B119">
         <v>1.5</v>
@@ -2733,7 +3861,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -2741,7 +3869,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B121">
         <v>1.5</v>
@@ -2749,7 +3877,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B122">
         <v>1.5</v>
@@ -2757,7 +3885,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B123">
         <v>1.5</v>
@@ -2765,7 +3893,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B124">
         <v>1.5</v>
@@ -2773,7 +3901,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B125">
         <v>1.5</v>
@@ -2781,7 +3909,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B126">
         <v>1.5</v>
@@ -2789,7 +3917,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B127">
         <v>1.5</v>
@@ -2797,7 +3925,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B128">
         <v>1.5</v>
@@ -2805,9 +3933,33 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B129">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132">
         <v>1.5</v>
       </c>
     </row>
@@ -2819,2160 +3971,4491 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8634DBA-4DA0-4904-BEC7-C880D9BF4A22}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>39</v>
       </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D8," ", A8)</f>
-        <v>4680 Iron Ore</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>7800</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G8,Resources[[#All],[Production Rate]])</f>
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>42</v>
       </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D9," ", A9)</f>
-        <v>10080 Iron Ore</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>8400</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G9,Resources[[#All],[Production Rate]])</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>46</v>
       </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D10," ", A10)</f>
-        <v>22080 Iron Ore</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>9200</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G10,Resources[[#All],[Production Rate]])</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D11," ", A11)</f>
-        <v>1560 Copper Ore</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>2600</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G11,Resources[[#All],[Production Rate]])</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D12," ", A12)</f>
-        <v>6960 Copper Ore</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>5800</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G12,Resources[[#All],[Production Rate]])</f>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D13," ", A13)</f>
-        <v>6240 Copper Ore</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>2600</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G13,Resources[[#All],[Production Rate]])</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
-      <c r="E14" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D14," ", A14)</f>
-        <v>1800 Limestone</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>3000</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G14,Resources[[#All],[Production Rate]])</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D15," ", A15)</f>
-        <v>12000 Limestone</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>10000</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G15,Resources[[#All],[Production Rate]])</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>29</v>
       </c>
-      <c r="E16" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D16," ", A16)</f>
-        <v>13920 Limestone</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>5800</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G16,Resources[[#All],[Production Rate]])</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D17," ", A17)</f>
-        <v>2160 Caterium Ore</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1800</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G17,Resources[[#All],[Production Rate]])</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D18," ", A18)</f>
-        <v>3840 Caterium Ore</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1600</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G18,Resources[[#All],[Production Rate]])</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="E19" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D19," ", A19)</f>
-        <v>1800 Coal</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>3000</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G19,Resources[[#All],[Production Rate]])</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>31</v>
       </c>
-      <c r="E20" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D20," ", A20)</f>
-        <v>7440 Coal</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>6200</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G20,Resources[[#All],[Production Rate]])</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>16</v>
       </c>
-      <c r="E21" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D21," ", A21)</f>
-        <v>7680 Coal</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>3200</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G21,Resources[[#All],[Production Rate]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D22," ", A22)</f>
-        <v>360 Raw Quartz</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>600</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="16">
+        <f>SUMIF(Resources[[#All],[Raw Resource]],G22,Resources[[#All],[Production Rate]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="E23" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D23," ", A23)</f>
-        <v>1680 Raw Quartz</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D24," ", A24)</f>
-        <v>3360 Raw Quartz</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D25," ", A25)</f>
-        <v>720 Sulfur</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D26," ", A26)</f>
-        <v>1200 Sulfur</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D27," ", A27)</f>
-        <v>2400 Sulfur</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D28," ", A28)</f>
-        <v>360 Uranium</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D29," ", A29)</f>
-        <v>480 Uranium</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D30," ", A30)</f>
-        <v>600 Bauxite</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D31," ", A31)</f>
-        <v>1440 Bauxite</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
-      <c r="E32" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D32," ", A32)</f>
-        <v>2880 Bauxite</v>
+      <c r="E32" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D33," ", A33)</f>
-        <v>1200 SAM</v>
+      <c r="E33" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D34," ", A34)</f>
-        <v>1440 SAM</v>
+      <c r="E34" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D35," ", A35)</f>
-        <v>1440 SAM</v>
+      <c r="E35" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
-      <c r="E36" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D36," ", A36)</f>
-        <v>600 Crude Oil</v>
+      <c r="E36" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
-      <c r="E37" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D37," ", A37)</f>
-        <v>1440 Crude Oil</v>
+      <c r="E37" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>2400</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
-      <c r="E38" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D38," ", A38)</f>
-        <v>1920 Crude Oil</v>
+      <c r="E38" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="E39" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D39," ", A39)</f>
-        <v>240 Crude Oil</v>
+      <c r="E39" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D40," ", A40)</f>
-        <v>360 Crude Oil</v>
+      <c r="E40" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D41," ", A41)</f>
-        <v>480 Crude Oil</v>
+      <c r="E41" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D42," ", A42)</f>
-        <v>60 Nitrogen Gas</v>
+      <c r="E42" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
-      <c r="E43" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D43," ", A43)</f>
-        <v>420 Nitrogen Gas</v>
+      <c r="E43" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>36</v>
       </c>
-      <c r="E44" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D44," ", A44)</f>
-        <v>4320 Nitrogen Gas</v>
+      <c r="E44" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>7200</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="5" t="str">
-        <f>_xlfn.CONCAT((VLOOKUP(Resources[[#This Row],[Machine]],Machines!$A$2:$B$6,2,FALSE)*VLOOKUP(Resources[[#This Row],[Purity]],$A$3:$B$5,2,FALSE))*D45," ", A45)</f>
-        <v>0 Water</v>
+      <c r="E45" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <f>200*Resources[[#This Row],['# Nodes]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087814B-CFAB-469D-A6B1-AFE98B34C747}">
+  <dimension ref="A1:M146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <v>22.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>37.5</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24">
+        <v>37.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>22.5</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="12">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12">
+        <v>25</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="12">
+        <v>100</v>
+      </c>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="13">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="13">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="13">
+        <v>10</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="13">
+        <v>50</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="12">
+        <v>30</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12">
+        <v>15</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="12">
+        <v>15</v>
+      </c>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="13">
+        <v>15</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="13">
+        <v>30</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="12">
+        <v>10</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="13">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="13">
+        <v>6</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="13">
+        <v>4</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="12">
+        <v>6</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="12">
+        <v>18</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="12">
+        <v>36</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="13">
+        <v>5</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="13">
+        <v>10</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="13">
+        <v>20</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="13">
+        <v>25</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="13">
+        <v>50</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="13">
+        <v>2</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="13">
+        <v>3</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="13">
+        <v>12</v>
+      </c>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="12">
+        <v>5</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="12">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="12">
+        <v>10</v>
+      </c>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="13">
+        <v>10</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="13">
+        <v>20</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="13">
+        <v>20</v>
+      </c>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="12">
+        <v>2</v>
+      </c>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="13">
+        <v>5</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="13">
+        <v>5</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="12">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="12">
+        <v>30</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="12">
+        <v>60</v>
+      </c>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="13">
+        <v>75</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="13">
+        <v>15</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="13">
+        <v>10</v>
+      </c>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="12">
+        <v>4</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="12">
+        <v>20</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="12">
+        <v>100</v>
+      </c>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="13">
+        <v>5</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="13">
+        <v>10</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="13">
+        <v>15</v>
+      </c>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="12">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="12">
+        <v>2</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="12">
+        <v>2</v>
+      </c>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="13">
+        <v>5</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="13">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="13">
+        <v>40</v>
+      </c>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="12">
+        <v>10</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="12">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="12">
+        <v>50</v>
+      </c>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="9">
+        <v>5</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="9">
+        <v>30</v>
+      </c>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="12">
+        <v>120</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="12">
+        <v>50</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="12">
+        <v>120</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="13">
+        <v>360</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="13">
+        <v>120</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="13">
+        <v>240</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="12">
+        <v>40</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="12">
+        <v>30</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="12">
+        <v>60</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="13">
+        <v>40</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="13">
+        <v>5</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="13">
+        <v>40</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="12">
+        <v>120</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="12">
+        <v>40</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="13">
+        <v>20</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="13">
+        <v>10</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="13">
+        <v>30</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="12">
+        <v>40</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="12">
+        <v>60</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="13">
+        <v>20</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="13">
+        <v>60</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="12">
+        <v>20</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="12">
+        <v>40</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="13">
+        <v>20</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="13">
+        <v>20</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="13">
+        <v>30</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="12">
+        <v>20</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="12">
+        <v>20</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="9">
+        <v>50</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="9">
+        <v>50</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="12">
+        <v>120</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="12">
+        <v>120</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>40</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="13">
+        <v>40</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12">
+        <v>30</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="12">
+        <v>30</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="13">
+        <v>40</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="13">
+        <v>80</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="12">
+        <v>30</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="12">
+        <v>30</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="13">
+        <v>60</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="13">
+        <v>240</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="12">
+        <v>30</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="12">
+        <v>30</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="13">
+        <v>60</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="13">
+        <v>120</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="12">
+        <v>40</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="12">
+        <v>40</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="13">
+        <v>20</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="13">
+        <v>20</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="14">
+        <v>60</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="14">
+        <v>60</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="12">
+        <v>60</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="12">
+        <v>90</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="9">
+        <v>45</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="9">
+        <v>45</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="12">
+        <v>1</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="12">
+        <v>5</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="12">
+        <v>5</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" s="12">
+        <v>1</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J94" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="13">
+        <v>1</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="13">
+        <v>5</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" s="13">
+        <v>2</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J95" s="13">
+        <v>40</v>
+      </c>
+      <c r="K95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="12">
+        <v>10</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" s="12">
+        <v>20</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" s="12">
+        <v>40</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="13">
+        <v>1</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" s="13">
+        <v>18</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="13">
+        <v>14</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H97" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="12">
+        <v>5</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="12">
+        <v>10</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" s="12">
+        <v>10</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" s="12">
+        <v>10</v>
+      </c>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="13">
+        <v>2</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="13">
+        <v>10</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="13">
+        <v>20</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H99" s="13">
+        <v>10</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J99" s="13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="12">
+        <v>210</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="13">
+        <v>2</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="13">
+        <v>15</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H101" s="13">
+        <v>2</v>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" s="12">
+        <v>10</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H102" s="12">
+        <v>5</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J102" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H103" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J103" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="12">
+        <v>40</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="13">
+        <v>10</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="13">
+        <v>60</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="13">
+        <v>50</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H105" s="13">
+        <v>30</v>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="12">
+        <v>10</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="12">
+        <v>1</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="12">
+        <v>20</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" s="12">
+        <v>100</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" s="12">
+        <v>200</v>
+      </c>
+      <c r="K106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1.875</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F107" s="13">
+        <v>3.75</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H107" s="13">
+        <v>5.625</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J107" s="13">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="12">
+        <v>1</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H108" s="12">
+        <v>3</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J108" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1.875</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" s="13">
+        <v>3.75</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J109" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="12">
+        <v>250</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="12">
+        <v>125</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" s="12">
+        <v>15</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H110" s="12">
+        <v>15</v>
+      </c>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="9">
+        <v>20</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H111" s="9">
+        <v>2</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="113" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
+        <v>87</v>
+      </c>
+      <c r="F115">
+        <v>50</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s">
+        <v>86</v>
+      </c>
+      <c r="J115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116">
+        <v>0.5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116">
+        <v>10</v>
+      </c>
+      <c r="M116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117">
+        <v>30</v>
+      </c>
+      <c r="K117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118">
+        <v>50</v>
+      </c>
+      <c r="G118" t="s">
+        <v>52</v>
+      </c>
+      <c r="H118">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>87</v>
+      </c>
+      <c r="J118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119">
+        <v>1.5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119">
+        <v>1.5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>86</v>
+      </c>
+      <c r="H119">
+        <v>75</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120">
+        <v>120</v>
+      </c>
+      <c r="G120" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120">
+        <v>30</v>
+      </c>
+      <c r="I120" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121">
+        <v>37.5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>137</v>
+      </c>
+      <c r="H121">
+        <v>25</v>
+      </c>
+      <c r="I121" t="s">
+        <v>104</v>
+      </c>
+      <c r="J121">
+        <v>15</v>
+      </c>
+      <c r="K121" t="s">
+        <v>87</v>
+      </c>
+      <c r="L121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>143</v>
+      </c>
+      <c r="F122">
+        <v>60</v>
+      </c>
+      <c r="G122" t="s">
+        <v>104</v>
+      </c>
+      <c r="H122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123">
+        <v>250</v>
+      </c>
+      <c r="E123" t="s">
+        <v>153</v>
+      </c>
+      <c r="F123">
+        <v>125</v>
+      </c>
+      <c r="G123" t="s">
+        <v>86</v>
+      </c>
+      <c r="H123">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>143</v>
+      </c>
+      <c r="J123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127">
+        <v>150</v>
+      </c>
+      <c r="I127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>600</v>
+      </c>
+      <c r="I128" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>124</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>119</v>
+      </c>
+      <c r="H129">
+        <v>200</v>
+      </c>
+      <c r="I129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130">
+        <v>0.5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130">
+        <v>100</v>
+      </c>
+      <c r="E130" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130">
+        <v>0.5</v>
+      </c>
+      <c r="I130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131">
+        <v>100</v>
+      </c>
+      <c r="E131" t="s">
+        <v>182</v>
+      </c>
+      <c r="F131">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="E135" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>122</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135" t="s">
+        <v>121</v>
+      </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
+      <c r="K135" t="s">
+        <v>118</v>
+      </c>
+      <c r="L135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <v>2.5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136">
+        <v>60</v>
+      </c>
+      <c r="E136" t="s">
+        <v>129</v>
+      </c>
+      <c r="F136">
+        <v>12.5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>161</v>
+      </c>
+      <c r="H136">
+        <v>7.5</v>
+      </c>
+      <c r="I136" t="s">
+        <v>121</v>
+      </c>
+      <c r="J136">
+        <v>7.5</v>
+      </c>
+      <c r="K136" t="s">
+        <v>118</v>
+      </c>
+      <c r="L136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137">
+        <v>2.5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137">
+        <v>50</v>
+      </c>
+      <c r="E137" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>94</v>
+      </c>
+      <c r="H137">
+        <v>5</v>
+      </c>
+      <c r="I137" t="s">
+        <v>116</v>
+      </c>
+      <c r="J137">
+        <v>100</v>
+      </c>
+      <c r="K137" t="s">
+        <v>118</v>
+      </c>
+      <c r="L137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D138">
+        <v>75</v>
+      </c>
+      <c r="E138" t="s">
+        <v>114</v>
+      </c>
+      <c r="F138">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>91</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>116</v>
+      </c>
+      <c r="J138">
+        <v>45</v>
+      </c>
+      <c r="K138" t="s">
+        <v>118</v>
+      </c>
+      <c r="L138">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>119</v>
+      </c>
+      <c r="D139">
+        <v>125</v>
+      </c>
+      <c r="E139" t="s">
+        <v>120</v>
+      </c>
+      <c r="F139">
+        <v>30</v>
+      </c>
+      <c r="G139" t="s">
+        <v>139</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139" t="s">
+        <v>85</v>
+      </c>
+      <c r="J139">
+        <v>45</v>
+      </c>
+      <c r="K139" t="s">
+        <v>118</v>
+      </c>
+      <c r="L139">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140">
+        <v>60</v>
+      </c>
+      <c r="E140" t="s">
+        <v>114</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>120</v>
+      </c>
+      <c r="H140">
+        <v>10</v>
+      </c>
+      <c r="I140" t="s">
+        <v>136</v>
+      </c>
+      <c r="J140">
+        <v>60</v>
+      </c>
+      <c r="K140" t="s">
+        <v>118</v>
+      </c>
+      <c r="L140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144">
+        <v>30</v>
+      </c>
+      <c r="C144" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144">
+        <v>60</v>
+      </c>
+      <c r="E144" t="s">
+        <v>84</v>
+      </c>
+      <c r="F144">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>115</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145">
+        <v>45</v>
+      </c>
+      <c r="E145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146">
+        <v>40</v>
+      </c>
+      <c r="E146" t="s">
+        <v>40</v>
+      </c>
+      <c r="F146">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="11">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087814B-CFAB-469D-A6B1-AFE98B34C747}">
-  <dimension ref="A1:I71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2934469E-803D-49D7-8397-1E7B16C5F295}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>41</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16">
+        <f>VLOOKUP(A6,Resources_Total[#All],2,FALSE)</f>
+        <v>25400</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A6,Item_Research[#All],2,FALSE)),0)</f>
+        <v>3.9370078740157478E-5</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16">
+        <f>VLOOKUP(A7,Resources_Total[#All],2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A7,Item_Research[#All],2,FALSE)),0)</f>
+        <v>9.0909090909090904E-5</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B8" s="16">
+        <f>VLOOKUP(A8,Resources_Total[#All],2,FALSE)</f>
+        <v>18800</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="D8" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A8,Item_Research[#All],2,FALSE)),0)</f>
+        <v>5.3191489361702127E-5</v>
+      </c>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="16">
+        <f>VLOOKUP(A9,Resources_Total[#All],2,FALSE)</f>
+        <v>3400</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A9,Item_Research[#All],2,FALSE)),0)</f>
+        <v>4.4117647058823526E-4</v>
+      </c>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="16">
+        <f>VLOOKUP(A10,Resources_Total[#All],2,FALSE)</f>
+        <v>12400</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
         <v>1</v>
       </c>
+      <c r="D10" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A10,Item_Research[#All],2,FALSE)),0)</f>
+        <v>8.0645161290322581E-5</v>
+      </c>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="16">
+        <f>VLOOKUP(A11,Resources_Total[#All],2,FALSE)</f>
+        <v>3400</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11">
         <v>1</v>
       </c>
+      <c r="D11" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A11,Item_Research[#All],2,FALSE)),0)</f>
+        <v>4.4117647058823526E-4</v>
+      </c>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="16">
+        <f>VLOOKUP(A12,Resources_Total[#All],2,FALSE)</f>
+        <v>3200</v>
       </c>
       <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A12,Item_Research[#All],2,FALSE)),0)</f>
+        <v>4.6874999999999998E-4</v>
+      </c>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="16">
+        <f>VLOOKUP(A13,Resources_Total[#All],2,FALSE)</f>
+        <v>1000</v>
       </c>
       <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13">
         <v>1</v>
       </c>
+      <c r="D13" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A13,Item_Research[#All],2,FALSE)),0)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="16">
+        <f>VLOOKUP(A14,Resources_Total[#All],2,FALSE)</f>
+        <v>3400</v>
       </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A14,Item_Research[#All],2,FALSE)),0)</f>
+        <v>2.941176470588235E-4</v>
+      </c>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="16">
+        <f>VLOOKUP(A15,Resources_Total[#All],2,FALSE)</f>
+        <v>3800</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
+      <c r="D15" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A15,Item_Research[#All],2,FALSE)),0)</f>
+        <v>3.9473684210526315E-4</v>
+      </c>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="B16" s="16">
+        <f>VLOOKUP(A16,Resources_Total[#All],2,FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A16,Item_Research[#All],2,FALSE)),0)</f>
+        <v>8.3333333333333328E-4</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
+        <v>191</v>
+      </c>
+      <c r="B17" s="16">
+        <f>VLOOKUP(A17,Resources_Total[#All],2,FALSE)</f>
+        <v>3600</v>
       </c>
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A17,Item_Research[#All],2,FALSE)),0)</f>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16">
+        <f>VLOOKUP(A18,Resources_Total[#All],2,FALSE)</f>
+        <v>9000</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A18,Item_Research[#All],2,FALSE)),0)</f>
+        <v>8.8888888888888893E-4</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16">
+        <f>VLOOKUP(A19,Resources_Total[#All],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A19,Item_Research[#All],2,FALSE)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="16">
+        <f>VLOOKUP(A20,Resources_Total[#All],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17">
+        <f>IFERROR(((AIV[[#This Row],[Input AIV]])/AIV[[#This Row],[Ouput Rate]]*VLOOKUP(A20,Item_Research[#All],2,FALSE)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <f>VLOOKUP(A21,Recipes_Smelter[#All],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="C21" s="18">
+        <f>VLOOKUP(VLOOKUP(A21,Recipes_Smelter[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A21,Recipes_Smelter[#All],4,FALSE)</f>
+        <v>1.1811023622047244E-3</v>
+      </c>
+      <c r="D21" s="17">
+        <f>(1 + C21) / B21 * VLOOKUP(A21,Item_Research[#All],2,FALSE)</f>
+        <v>3.3372703412073497E-2</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <f>VLOOKUP(A22,Recipes_Smelter[#All],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="C22" s="18">
+        <f>VLOOKUP(VLOOKUP(A22,Recipes_Smelter[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A22,Recipes_Smelter[#All],4,FALSE)</f>
+        <v>2.7272727272727271E-3</v>
+      </c>
+      <c r="D22" s="17">
+        <f>(1 + C22) / B22 * VLOOKUP(A22,Item_Research[#All],2,FALSE)</f>
+        <v>3.3424242424242426E-2</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <f>VLOOKUP(A23,Recipes_Smelter[#All],2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="C23" s="18">
+        <f>VLOOKUP(VLOOKUP(A23,Recipes_Smelter[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A23,Recipes_Smelter[#All],4,FALSE)</f>
+        <v>1.9852941176470587E-2</v>
+      </c>
+      <c r="D23" s="17">
+        <f>(1 + C23) / B23 * VLOOKUP(A23,Item_Research[#All],2,FALSE)</f>
+        <v>0.10198529411764704</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="19">
+        <f>VLOOKUP(A24,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="C24" s="18">
+        <f>VLOOKUP(VLOOKUP(A24,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A24,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>2.3936170212765957E-3</v>
+      </c>
+      <c r="D24" s="17">
+        <f>(1 + C24) / B24 * VLOOKUP(A24,Item_Research[#All],2,FALSE)</f>
+        <v>6.6826241134751774E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="19">
+        <f>VLOOKUP(A25,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="C25" s="18">
+        <f>VLOOKUP(VLOOKUP(A25,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A25,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>1.0027272727272727</v>
+      </c>
+      <c r="D25" s="17">
+        <f>(1 + C25) / B25 * VLOOKUP(A25,Item_Research[#All],2,FALSE)</f>
+        <v>0.32043636363636369</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="19">
+        <f>VLOOKUP(A26,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="C26" s="18">
+        <f>VLOOKUP(VLOOKUP(A26,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A26,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>0.66848484848484846</v>
+      </c>
+      <c r="D26" s="17">
+        <f>(1 + C26) / B26 * VLOOKUP(A26,Item_Research[#All],2,FALSE)</f>
+        <v>0.33369696969696971</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="19">
+        <f>VLOOKUP(A27,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="C27" s="18">
+        <f>VLOOKUP(VLOOKUP(A27,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A27,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>1.0011811023622048</v>
+      </c>
+      <c r="D27" s="17">
+        <f>(1 + C27) / B27 * VLOOKUP(A27,Item_Research[#All],2,FALSE)</f>
+        <v>0.10005905511811024</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="19">
+        <f>VLOOKUP(A28,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="C28" s="18">
+        <f>VLOOKUP(VLOOKUP(A28,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A28,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>0.50059055118110241</v>
+      </c>
+      <c r="D28" s="17">
+        <f>(1 + C28) / B28 * VLOOKUP(A28,Item_Research[#All],2,FALSE)</f>
+        <v>0.10003937007874016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="19">
+        <f>VLOOKUP(A29,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>22.5</v>
+      </c>
+      <c r="C29" s="18">
+        <f>VLOOKUP(VLOOKUP(A29,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A29,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>1.6544117647058824E-2</v>
+      </c>
+      <c r="D29" s="17">
+        <f>(1 + C29) / B29 * VLOOKUP(A29,Item_Research[#All],2,FALSE)</f>
+        <v>6.776960784313725E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="19">
+        <f>VLOOKUP(A30,Recipes_Constructor[#All],2,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="18">
+        <f>VLOOKUP(VLOOKUP(A30,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A30,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>1.2238235294117645</v>
+      </c>
+      <c r="D30" s="17">
+        <f>(1 + C30) / B30 * VLOOKUP(A30,Item_Research[#All],2,FALSE)</f>
+        <v>5.5595588235294119E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="B31" s="19">
+        <f>VLOOKUP(A31,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="C31" s="18">
+        <f>VLOOKUP(VLOOKUP(A31,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A31,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>4.736842105263158E-2</v>
+      </c>
+      <c r="D31" s="17">
+        <f>(1 + C31) / B31 * VLOOKUP(A31,Item_Research[#All],2,FALSE)</f>
+        <v>5.2368421052631571E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="B32" s="19">
+        <f>VLOOKUP(A32,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>37.5</v>
+      </c>
+      <c r="C32" s="18">
+        <f>VLOOKUP(VLOOKUP(A32,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A32,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>9.9264705882352935E-3</v>
+      </c>
+      <c r="D32" s="17">
+        <f>(1 + C32) / B32 * VLOOKUP(A32,Item_Research[#All],2,FALSE)</f>
+        <v>4.0397058823529411E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>80</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B33" s="19">
+        <f>VLOOKUP(A33,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="C33" s="18">
+        <f>VLOOKUP(VLOOKUP(A33,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A33,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>0.50136363636363634</v>
+      </c>
+      <c r="D33" s="17">
+        <f>(1 + C33) / B33 * VLOOKUP(A33,Item_Research[#All],2,FALSE)</f>
+        <v>5.0045454545454546E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B34" s="19">
+        <f>VLOOKUP(A34,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="C34" s="18">
+        <f>VLOOKUP(VLOOKUP(A34,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A34,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>3.0027272727272729</v>
+      </c>
+      <c r="D34" s="17">
+        <f>(1 + C34) / B34 * VLOOKUP(A34,Item_Research[#All],2,FALSE)</f>
+        <v>0.13342424242424242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="B35" s="19">
+        <f>VLOOKUP(A35,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="C35" s="18">
+        <f>VLOOKUP(VLOOKUP(A35,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A35,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>1.5005905511811024</v>
+      </c>
+      <c r="D35" s="17">
+        <f>(1 + C35) / B35 * VLOOKUP(A35,Item_Research[#All],2,FALSE)</f>
+        <v>0.25005905511811022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>24</v>
-      </c>
-      <c r="F42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>120</v>
-      </c>
-      <c r="F43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>60</v>
-      </c>
-      <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>60</v>
-      </c>
-      <c r="F47" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>60</v>
-      </c>
-      <c r="F48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51">
-        <v>25</v>
-      </c>
-      <c r="E51">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>12</v>
-      </c>
-      <c r="F52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>30</v>
-      </c>
-      <c r="F53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>24</v>
-      </c>
-      <c r="F56" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60">
-        <v>18</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61">
-        <v>6</v>
-      </c>
-      <c r="H61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="H62" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63">
-        <v>16</v>
-      </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>24</v>
-      </c>
-      <c r="F63" t="s">
-        <v>163</v>
-      </c>
-      <c r="G63">
-        <v>16</v>
-      </c>
-      <c r="H63" t="s">
-        <v>156</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="E65">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>183</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
+        <v>166</v>
+      </c>
+      <c r="B36" s="19">
+        <f>VLOOKUP(A36,Recipes_Constructor[#All],2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="C36" s="18">
+        <f>VLOOKUP(VLOOKUP(A36,Recipes_Constructor[#All],3,FALSE),AIV[#All],4,FALSE) * VLOOKUP(A36,Recipes_Constructor[#All],4,FALSE)</f>
+        <v>1.0003937007874015</v>
+      </c>
+      <c r="D36" s="17">
+        <f>(1 + C36) / B36 * VLOOKUP(A36,Item_Research[#All],2,FALSE)</f>
+        <v>5.000984251968503E-2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
